--- a/allmedic/excel.xlsx
+++ b/allmedic/excel.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabela" r:id="rId3" sheetId="1"/>
+    <sheet name="Protocolos" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
     <t>FABIO MAURICIO DA SILVA</t>
   </si>
   <si>
-    <t>Renovação remunerada</t>
+    <t>Renovação Remunerada.</t>
   </si>
   <si>
     <t>333,58</t>
@@ -59,7 +59,7 @@
     <t>JOSE HENRIQUE SOUSA MENDES</t>
   </si>
   <si>
-    <t>1a.</t>
+    <t>1° Habilitação</t>
   </si>
 </sst>
 </file>
@@ -84,17 +84,12 @@
       <color indexed="17"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="23"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,10 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -128,7 +122,7 @@
   <cols>
     <col min="1" max="1" width="11.64453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.38671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.3671875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.56640625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.65625" customWidth="true" bestFit="true"/>
   </cols>
@@ -151,16 +145,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="b" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="2">
+      <c r="A2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -168,16 +162,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="b" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s" s="2">
+      <c r="A3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -185,16 +179,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="b" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s" s="2">
+      <c r="A4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
@@ -202,16 +196,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="b" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s" s="2">
+      <c r="A5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
@@ -219,16 +213,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="b" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s" s="2">
+      <c r="A6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
